--- a/pred_ohlcv/54_21/2020-01-21 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-115186.8534</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-119831.6239</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-155521.1097568631</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-155563.2166568631</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-218314.4888231327</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-217374.0260998082</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-196517.0005568631</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-188922.8983568632</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-189291.0614568632</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-189395.6284568632</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-182687.5032568632</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-182687.5032568632</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-182686.3032568631</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-183838.7308568631</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-183837.6308568631</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-231964.8765568631</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-231941.3765568631</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-231601.6012270681</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-231621.6012270681</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-231574.070927068</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-231532.264727068</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-235734.2287270681</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-252493.5750270681</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-252491.487727068</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-252534.1215270681</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-274316.4275270681</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-284742.127603491</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-295900.5068583047</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-296873.3252583047</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-303000.7577583047</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-302264.1043583047</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-302418.3299583047</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-307238.6025722092</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-307237.5495722092</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-321530.1496722092</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-323313.1114722092</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-323666.7723722092</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-323665.7123722092</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-323660.8432722091</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-323902.9511722091</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-323901.8951722091</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-323900.8451722091</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-325093.0242722091</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-325091.9662722091</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-327686.4651722091</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-327685.4071722091</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-320913.0340722091</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-323358.2578722092</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-323358.2578722092</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-300926.3784222092</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-308275.2169222092</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-307194.7461222092</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-362176.0365222093</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-115186.8534</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-119831.6239</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-119577.9941</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-155521.1097568631</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-155563.2166568631</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-218314.4888231327</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-217374.0260998082</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-196517.0005568631</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-188922.8983568632</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-189291.0614568632</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-189395.6284568632</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-182687.5032568632</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-182686.3032568631</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-183838.7308568631</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-183837.6308568631</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-195583.3198568631</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-205271.3959568632</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-205270.2959568631</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-213276.9013568631</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-231964.8765568631</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-231941.3765568631</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-231601.6012270681</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-231621.6012270681</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-231574.070927068</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-231532.264727068</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-252534.1215270681</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-274316.4275270681</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-295900.5068583047</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-296873.3252583047</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-323666.7723722092</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-323665.7123722092</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-323660.8432722091</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-323902.9511722091</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-323901.8951722091</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-323900.8451722091</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-325093.0242722091</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-325091.9662722091</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-327686.4651722091</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-327685.4071722091</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-320913.0340722091</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-324342.8507722092</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-299028.8193222092</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-296837.7322222092</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-296852.9948222092</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-300741.5523222092</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-300815.4296222092</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-300813.4296222092</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-300977.1050222092</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-300926.3784222092</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-306578.4311222092</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-306430.8381222092</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-308201.5038222093</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-308275.2169222092</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-307008.2746222093</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-307194.7461222092</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-307080.5841222092</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-308099.5994222093</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-310303.7310222093</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-310400.0886222093</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-362176.0365222093</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
